--- a/controllers/CL_TEST_8_action 5/data/Curriculum No ob train 5000_1/Curriculum No ob train 5000_1_Test_gap_2/Curriculum No ob train 5000_1_Test_gap_2_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/Curriculum No ob train 5000_1/Curriculum No ob train 5000_1_Test_gap_2/Curriculum No ob train 5000_1_Test_gap_2_Test_Result.xlsx
@@ -445,16 +445,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.95</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="C5" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
